--- a/data/trans_camb/P23_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.13562345411015</v>
+        <v>-4.482544051730669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.00829413119099</v>
+        <v>-13.08657674180544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.6257054063153</v>
+        <v>-6.266519618126271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-17.80400933706283</v>
+        <v>-17.82421640108587</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.238239770603728</v>
+        <v>-3.172053749978498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.09085880272242</v>
+        <v>-12.86608261873572</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.872794314470694</v>
+        <v>8.050306082940388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.389828422446733</v>
+        <v>-0.4920264525001099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.114388533154534</v>
+        <v>8.994189685017366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.835334218817504</v>
+        <v>-4.127640886133724</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.65175739423207</v>
+        <v>6.746390662938604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.475808267758177</v>
+        <v>-3.983234291179841</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1178128731498765</v>
+        <v>-0.1293116919210622</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.372315550421443</v>
+        <v>-0.3759631237208472</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.17242993868505</v>
+        <v>-0.1773612179661601</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5188460202229856</v>
+        <v>-0.5178045830419525</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09478856562380014</v>
+        <v>-0.09613746127007874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3908783430498166</v>
+        <v>-0.3864491568782373</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3055774609278589</v>
+        <v>0.2713270929539406</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01331495863525762</v>
+        <v>-0.01690237976937155</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3649427663065206</v>
+        <v>0.3439086661818576</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1308649452510501</v>
+        <v>-0.1316902906937877</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2365516829789931</v>
+        <v>0.2342148054099926</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1580352735002742</v>
+        <v>-0.1368047742790141</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.505687624346772</v>
+        <v>-7.749115412061225</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.4564097475326</v>
+        <v>-15.20728835912393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.897068716531787</v>
+        <v>-5.777781360325564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.31799514404675</v>
+        <v>-15.98701936212437</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.862574855493129</v>
+        <v>-5.412142740457192</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.12686263690069</v>
+        <v>-13.47548833862761</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.147157236988725</v>
+        <v>6.052070699740096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8786318472235174</v>
+        <v>-1.113529822966118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.099378813488315</v>
+        <v>9.456715607348233</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.646648622034051</v>
+        <v>-2.664601997326482</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.468445423194974</v>
+        <v>5.271648829547295</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.226383120441897</v>
+        <v>-4.065726921359591</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2055694534712851</v>
+        <v>-0.1965351763955271</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3851257518037823</v>
+        <v>-0.3847061406747844</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.154153520480504</v>
+        <v>-0.1497152134180069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3906324008497573</v>
+        <v>-0.4032058662664337</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1259956964635655</v>
+        <v>-0.139600032607357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3594133924684645</v>
+        <v>-0.3540190069896293</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.188382242153049</v>
+        <v>0.1756115889691453</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02560173446495619</v>
+        <v>-0.03402889651313137</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2846976886015419</v>
+        <v>0.2996199851874567</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04904264431577072</v>
+        <v>-0.07806778346681993</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1595601254499954</v>
+        <v>0.1532333022558068</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1250895637598321</v>
+        <v>-0.1186075596781527</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.412602456076758</v>
+        <v>-9.62279050207008</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.25992273189215</v>
+        <v>-11.50639428792422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.982232729479986</v>
+        <v>-3.859109456837345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.935219775388847</v>
+        <v>-5.417481343644514</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.657463309365454</v>
+        <v>-6.991223518223267</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.445895593913802</v>
+        <v>-8.60094266350314</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.318866222928606</v>
+        <v>2.354890679737196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4787583955207289</v>
+        <v>0.4540189970278559</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.89533602787177</v>
+        <v>14.33053398846843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.45944312571213</v>
+        <v>15.1806750459814</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.204480854935392</v>
+        <v>3.448374283749706</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.884522440753382</v>
+        <v>2.2233593543545</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1891936994037078</v>
+        <v>-0.1942328393833083</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.226820742263106</v>
+        <v>-0.2297321046456097</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1245017799677607</v>
+        <v>-0.1192400758283996</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2156253490754854</v>
+        <v>-0.1848730634288996</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1495907959462162</v>
+        <v>-0.1526724372748801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1916592771843104</v>
+        <v>-0.192838506963015</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05212613976711548</v>
+        <v>0.05253649273800393</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.01023215751563845</v>
+        <v>0.01431568568368459</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6534947635286618</v>
+        <v>0.6685673839083908</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6038723308814692</v>
+        <v>0.6651213657291173</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08258150186109822</v>
+        <v>0.08726752459923436</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04648095167040066</v>
+        <v>0.05763688050325155</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.474576805936014</v>
+        <v>-6.693770195112961</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.59442418280239</v>
+        <v>-11.2710787114741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.94589077544812</v>
+        <v>-1.354184394696167</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3504237395117924</v>
+        <v>-0.6963654450270448</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.799356593729546</v>
+        <v>-3.122856412916929</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.17459066281642</v>
+        <v>-5.909623758718069</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.810511125080825</v>
+        <v>1.525239734528896</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.949366118310227</v>
+        <v>-3.390417589039813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.288694005281176</v>
+        <v>8.67221159066993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.292695960212592</v>
+        <v>9.140607657430269</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.0761708948969</v>
+        <v>3.120146609205382</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08949453486116868</v>
+        <v>0.2641770058366792</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1379462912723982</v>
+        <v>-0.1407187229755073</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2416891812958174</v>
+        <v>-0.2412405556890477</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0537796250140708</v>
+        <v>-0.03499190564189014</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.008694595269670884</v>
+        <v>-0.02368922622818557</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08810811842921225</v>
+        <v>-0.07311802412490929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1432040251786831</v>
+        <v>-0.139688454808661</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0413457271489184</v>
+        <v>0.03496727905902514</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.06696812057088301</v>
+        <v>-0.08075494963128628</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2620858924313986</v>
+        <v>0.2844426392394082</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3016974241036488</v>
+        <v>0.2914379093021702</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07719930279320773</v>
+        <v>0.07906012699462775</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002271436883738795</v>
+        <v>0.005983140593923467</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-17.80813243632612</v>
+        <v>-17.22528209462055</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-21.01345469660241</v>
+        <v>-20.79733928179007</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.561312736914701</v>
+        <v>-8.291150233508871</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.585688636813176</v>
+        <v>-7.741124583089724</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.05376363490802</v>
+        <v>-10.75130010271859</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.43065751001634</v>
+        <v>-10.54374050975285</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.381894282116602</v>
+        <v>-3.172206117211586</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.117564801879047</v>
+        <v>-7.322413976896793</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.937728994168825</v>
+        <v>1.752288256447579</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.163560732145564</v>
+        <v>3.164118181382074</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.327292209134439</v>
+        <v>-1.603568190083079</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.994501396573509</v>
+        <v>-1.704420002057387</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3149154134527197</v>
+        <v>-0.3019506541051317</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3666310317496113</v>
+        <v>-0.3654510531869259</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2465912049564004</v>
+        <v>-0.2416214321137072</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2179180203764494</v>
+        <v>-0.2211841104346753</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2364586415518989</v>
+        <v>-0.2498169235245328</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2444737650209508</v>
+        <v>-0.2473966179714515</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.09139891142595315</v>
+        <v>-0.06681936322622893</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1477693198890034</v>
+        <v>-0.1514259300931175</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.07204912010352564</v>
+        <v>0.06157134310782088</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1073525423841334</v>
+        <v>0.1113012497814239</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.03539957194539496</v>
+        <v>-0.04177247917252289</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.05049320988634685</v>
+        <v>-0.04662669995948502</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.85221813892315</v>
+        <v>-13.02122800035525</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.49556304307368</v>
+        <v>-11.37419508041133</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.428035891632754</v>
+        <v>-1.545189700349199</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3107682657838906</v>
+        <v>-0.3100810699281958</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.798738917948982</v>
+        <v>-2.47194393544366</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.467538757696323</v>
+        <v>-1.474595024173091</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.578081074125359</v>
+        <v>1.460962460225244</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.136388464838229</v>
+        <v>3.276745886900012</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.261846119011745</v>
+        <v>3.950149082078186</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.663915091781986</v>
+        <v>5.530290986946159</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.648448523414879</v>
+        <v>3.046614501063345</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.284834863244207</v>
+        <v>4.165723044006371</v>
       </c>
     </row>
     <row r="37">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3904497281975957</v>
+        <v>-0.3884382111450654</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3460803417760678</v>
+        <v>-0.3431084705502069</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.09578825762826032</v>
+        <v>-0.1037101505012021</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0275109864935528</v>
+        <v>-0.02056914632913537</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1556152391449349</v>
+        <v>-0.1380368963159959</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.0818712700007744</v>
+        <v>-0.082106945684753</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.06174944117889652</v>
+        <v>0.05521222232627918</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1226241742216325</v>
+        <v>0.1234544769780433</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3501965229062377</v>
+        <v>0.3274862883901769</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4510476891920507</v>
+        <v>0.453405267810879</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1759807774035602</v>
+        <v>0.2044094699533858</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2753115504303815</v>
+        <v>0.2769378691602762</v>
       </c>
     </row>
     <row r="40">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.135740000264192</v>
+        <v>-5.238930045170368</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.52090911355225</v>
+        <v>-9.924782091028829</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.1604304398815272</v>
+        <v>-0.2340011033500993</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.516780017500991</v>
+        <v>-1.452065250119493</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.981366040172099</v>
+        <v>-2.068511578067572</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.702533253878713</v>
+        <v>-4.894614474210556</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.2153894421159402</v>
+        <v>-0.4591539901873047</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-4.677957222372546</v>
+        <v>-4.864148241172725</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.290146746266667</v>
+        <v>4.382097986684847</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.681120408052966</v>
+        <v>2.852273318372083</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.315430872622177</v>
+        <v>1.276696411615288</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.534538934676811</v>
+        <v>-1.572328641703489</v>
       </c>
     </row>
     <row r="43">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1180770730824135</v>
+        <v>-0.1198089179830181</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2205177800182102</v>
+        <v>-0.2291046100263323</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.00657035649890556</v>
+        <v>-0.009112802300336917</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.05562606870307332</v>
+        <v>-0.05317782823852751</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.05739129471865598</v>
+        <v>-0.06023102437286629</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1363219493706464</v>
+        <v>-0.1413030667650119</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.004977886106022408</v>
+        <v>-0.01067473506902605</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1149089930719858</v>
+        <v>-0.1199586844082172</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1704475175466509</v>
+        <v>0.1760686201234103</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1094193940866554</v>
+        <v>0.117258247462349</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04009103867081421</v>
+        <v>0.03808973489383016</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.04729257150590855</v>
+        <v>-0.04806066505760483</v>
       </c>
     </row>
     <row r="46">
